--- a/DATOS/RESULTADOS/salario_real_inquilinos_y_oficial_estatal.xlsx
+++ b/DATOS/RESULTADOS/salario_real_inquilinos_y_oficial_estatal.xlsx
@@ -491,16 +491,16 @@
         <v>2025</v>
       </c>
       <c r="B8">
-        <v>12.62182732009378</v>
+        <v>12.56082016290097</v>
       </c>
       <c r="C8">
-        <v>12.11383093625995</v>
+        <v>12.04303824191804</v>
       </c>
       <c r="D8">
-        <v>96.67799710842222</v>
+        <v>96.21070741913216</v>
       </c>
       <c r="E8">
-        <v>93.06151304124691</v>
+        <v>92.51766565866501</v>
       </c>
     </row>
   </sheetData>
